--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB76E3C-203C-2446-8B4D-27E0DEF3161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB68809-52D2-2646-A9E2-75B0DC197DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -165,63 +165,6 @@
     <t>Calendário 2013-1.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/10YKEfa6sT1EkD-l5Wx5y5gVAJ3pyC3f2/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/167gMEpfykjjpdQLLRE0hooBMX0VDcV6C/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19Rffdl2cY2mVmwtRNIKAEdsvbqWSnWcs/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19lTvm4n-OuKUTLXMu6Eax4PK7Mo4Hh6z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BBQAN54GQYYOBOLxztY9TymKPKFVjTj9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DUgy0Ww18JTklcla_Nvk-CK-ocrkedpY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HjGqghvf2RTiYfiX6sijkj6iq1pIqf4T/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JXybygfI-NaRyu33Fb8kkyDbGoP7BlzO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NEgfvKjIfxCnQfgpBtV62v1Dl_1z7nHj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RGqwIIsZ1i_k6_2DfrVVwR7oF75W6A-d/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TLTVD5oF_8rTJ8NvMk-0MOhlj9dP2CWi/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZPpnaqys6uVCr1TJMd2cv3yriFtJcZ3R/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_D6CEcEggBjv3P86XEVWhJeC3sASXOtq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_mErdCWGBAOtaIlt4tvnRLVq6wNEsslI/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1eEf-p_TymXM2EMMHiN4EgHUJiKGyrTv3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oFW3dqNMg-HJJ43DBAP8-osAfbCxm9AS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tKs4DIbs4NrrpLa0gUHGEciXcrowLt7u/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vyO2jEgIZABFtiHteiLstVojHImhe3Lf/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yw9uVdyL7efA-gz94fYXtg1pia94haWw/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Abrir</t>
   </si>
   <si>
@@ -240,25 +183,82 @@
     <t>Calendário 2022-1.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1CRXNNlYqbza1yesyceweh1xVMUR6iXGx/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YZ1i77J7-fgPIJoDwH-LEyYwuEKHgr44/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YYURn8Fj2llVhPR6pMSBMl0H4v5XLoF1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YZAUwl80hu2hbEVAD-JcymdZ6lpTtHp2/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2022-2</t>
   </si>
   <si>
     <t>Calendário 2022-2.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pYyYtD2c58xiVGYDZ30bOGAFEIkTgF1c/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1-xqVNFc-XKKbyffSVC1616BMfPYrS-K6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10tZbzRszcUUnEcbPeEYNmQ23ZuzgC53U/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-NrVwQ1uKiRDgfCDp4Awpwt_4IPu5orz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/119haBrnC7A5GBW32CT2NljBTn3t-lhyj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-vxQr6QsQxqpahEY4RlZ0IfIiYcwpU9V/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/113aARaLknQ97w675TCSh0gNnHTDC5ggw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-yVulUXs-0CLIBt8HEsUiBwMVyc8083j/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-oqsa7vf3WvJN0WhQQ4sNk92-nXxyoUH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10khIX2KA7PyDFM32BtCIXNoFPhbtbaeT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-_M9egg46ywyg1s4dYOyjUrg2wpPbUi1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-OYpzk98_RqTIwLr8ORA0OVuBA9Jz7uu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/117hrgExVXqTjUQkjodFbve_J8bO9ZLSE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/115yzWSvO1vI3GGNaqACR5B144xUqJ9N8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-mj_v40UUDUaNn-gU1POR1U-Z-_rS6xp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-_BJ2Ne0IP0JVN7RA3_DFwuoCjbxGVc0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/102xoCOYVE0I2Iq4QTdEbx92WP--mNaL_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-T5eOINh3Vg7W5cCHayTwv2jcArCwbDr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-iBfLoHHAApHL1D5DXfsmGACykf-QNKw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10rjQpCNuOSxlFAPifxLnUxMwpyl3Enpm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/107cWqwybCsh-daF8jvLFQsA6rGeBhvOg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-msVpziIKv5j6SGhLFjXevke_gb3KzcW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10fUQA5UKDgf6MehOvIEbvYuunpac8-Bt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10-QY48_fIR6KjPbc2goUT0-ytARTc9g5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/119Tz3TMA-NfxivHKL9qUGnWRUYMTsM04/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -650,18 +650,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
@@ -669,24 +669,24 @@
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -926,30 +926,30 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{26A2D68A-4772-1445-9925-0132001B33BC}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{5C9C3329-E022-6E48-8E73-4A3ED9B2C85A}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{4FE288B9-FA34-C540-AE22-4DCBC476328A}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{47E61DAF-474D-2549-BB3A-680FE49DE58A}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{F1C7CB66-F3D1-9B45-AF16-F6BBA468813A}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{50FA510A-31B3-9A4C-AF22-022A08FC5753}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{D605F9D8-87B4-7545-88F8-0836F454AF1B}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{9A09FF75-B312-8846-9977-F8CCB9B5C3F6}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{EF0C1FF7-E680-8E43-A74C-ECAF19F7491D}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{8D3E0A0A-3534-2448-BDCF-AB812D15F9FF}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{9B60F528-5A9B-7648-A610-F8FB2DC6E5AB}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{869C15E8-E239-2C4F-B3BC-6C26CEBA71D9}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{F4EBDBE3-1A47-1545-A22E-A00420589B8A}"/>
-    <hyperlink ref="C12" r:id="rId14" xr:uid="{F7301F90-2D39-4246-978D-B7E7DB62D415}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{BABAE171-D937-C941-B1F4-288367031C0E}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{0B45D062-8CCC-F04E-B5A9-834A2EBE0AF6}"/>
-    <hyperlink ref="C9" r:id="rId17" xr:uid="{04F615BF-0CD8-E245-9B86-1D708B06BD04}"/>
-    <hyperlink ref="C8" r:id="rId18" xr:uid="{920D2E45-4659-5B47-88AD-7C7F45A18F01}"/>
-    <hyperlink ref="C7" r:id="rId19" xr:uid="{0A271885-2D63-FB42-8645-543D7C05A2B4}"/>
-    <hyperlink ref="C6" r:id="rId20" xr:uid="{F5B3F1A7-53F1-5F4F-8FBF-3221B140425D}"/>
-    <hyperlink ref="C5" r:id="rId21" xr:uid="{F2B3D762-81EA-274F-9519-66A0A3B8DB01}"/>
-    <hyperlink ref="C4" r:id="rId22" xr:uid="{D872E695-0D6D-8043-81F1-B86DC1C12E71}"/>
-    <hyperlink ref="C3" r:id="rId23" xr:uid="{745F66F9-4612-0241-9784-1D64DD50A902}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{05FF038C-FD25-6C44-80DF-6BA687D9BF78}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C9" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C6" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C5" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C4" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C3" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB68809-52D2-2646-A9E2-75B0DC197DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C036A7-7823-5449-98A7-B5A770823AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calendários" sheetId="8" r:id="rId1"/>
+    <sheet name="Sede" sheetId="8" r:id="rId1"/>
+    <sheet name="Cooperação" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Publicação</t>
   </si>
@@ -259,6 +260,63 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/119Tz3TMA-NfxivHKL9qUGnWRUYMTsM04/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Calendário 2021 PCI.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18ya0xmAOAblfOCPDCa09VepSUKCTXNLL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YNbrbTbGCHnJijg1lDMzosdurIYfWI0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18ZBzg6KFEpWFkYl6FWqw01o6wCIkRutB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18_wTW5y7hXg_ehvL_eOv6ccBX7pEmUUK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18MnnQHiAxHOQm5JNfeA-mqgciQvQN9Ro/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18iKd6lESM_EXqxcxf9yQKNtLoNe3UmK_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18iZ3-xV9vclDyc1pM8uuSH-VWIXmvv-I/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18qf9TyUE7ZLAPJSm2S8SWwApu52jra79/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18qg4gQMWlBV8OZXe0DKxzUzrxCU1wPVz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Calendário 2019-1 Minter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2019-1 Dinter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2019-2 Minter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2019-2 Dinter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2020-1 Minter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2020-1 Dinter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2020-2 Minter.pdf</t>
+  </si>
+  <si>
+    <t>Calendário 2020-2 Dinter.pdf</t>
   </si>
 </sst>
 </file>
@@ -311,14 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -636,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -656,8 +712,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
@@ -667,8 +723,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -678,8 +734,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
@@ -953,4 +1009,146 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EBE82B-9254-3E43-9085-92B4A46A943A}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{83211E8C-71E4-154C-9B2A-8170ACB72E20}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{3F334DE2-6A63-3243-8882-52E395B2A27C}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{480FE638-E348-7F41-8CC3-65BE4E665E05}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{9DC5FFCA-1672-3046-9221-8CE294D525D0}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{9A993AB2-0F51-8B49-9F58-BE44D0127A8A}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{5F733928-9082-9344-B235-716139010E2C}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{A5894B6B-5DA1-C04B-8D39-2CF84EFF2852}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{0EBFBEB6-DE6D-E643-AB8A-687B9BEB19D0}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{7C9F3DFA-EF37-4E4C-8BB1-3D1BEADB91E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C036A7-7823-5449-98A7-B5A770823AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D37D3-F006-CC4F-B0FE-38C06DE09E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Publicação</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>Calendário 2020-2 Dinter.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kg84vdeBOdLqajzxXWoIRoTc9kWR1Arl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2023-1</t>
+  </si>
+  <si>
+    <t>Calendário 2023-1.pdf</t>
   </si>
 </sst>
 </file>
@@ -690,9 +699,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -714,298 +723,310 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C25">
-    <sortCondition descending="1" ref="A5:A25"/>
-    <sortCondition ref="B5:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C26">
+    <sortCondition descending="1" ref="A6:A26"/>
+    <sortCondition ref="B6:B26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C12" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C9" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C8" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C7" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C6" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C5" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C4" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C3" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C24" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C23" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C8" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C5" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C4" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C3" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C2" r:id="rId25" xr:uid="{B62EC318-9A3E-8B46-A2BA-2987E5EEAF2E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1015,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EBE82B-9254-3E43-9085-92B4A46A943A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D37D3-F006-CC4F-B0FE-38C06DE09E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F12F4-296E-D349-ADB8-8BBA1ABF5B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -190,111 +190,12 @@
     <t>Calendário 2022-2.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1-xqVNFc-XKKbyffSVC1616BMfPYrS-K6/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10tZbzRszcUUnEcbPeEYNmQ23ZuzgC53U/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-NrVwQ1uKiRDgfCDp4Awpwt_4IPu5orz/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/119haBrnC7A5GBW32CT2NljBTn3t-lhyj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-vxQr6QsQxqpahEY4RlZ0IfIiYcwpU9V/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/113aARaLknQ97w675TCSh0gNnHTDC5ggw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-yVulUXs-0CLIBt8HEsUiBwMVyc8083j/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-oqsa7vf3WvJN0WhQQ4sNk92-nXxyoUH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10khIX2KA7PyDFM32BtCIXNoFPhbtbaeT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-_M9egg46ywyg1s4dYOyjUrg2wpPbUi1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-OYpzk98_RqTIwLr8ORA0OVuBA9Jz7uu/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/117hrgExVXqTjUQkjodFbve_J8bO9ZLSE/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/115yzWSvO1vI3GGNaqACR5B144xUqJ9N8/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-mj_v40UUDUaNn-gU1POR1U-Z-_rS6xp/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-_BJ2Ne0IP0JVN7RA3_DFwuoCjbxGVc0/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/102xoCOYVE0I2Iq4QTdEbx92WP--mNaL_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-T5eOINh3Vg7W5cCHayTwv2jcArCwbDr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-iBfLoHHAApHL1D5DXfsmGACykf-QNKw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10rjQpCNuOSxlFAPifxLnUxMwpyl3Enpm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/107cWqwybCsh-daF8jvLFQsA6rGeBhvOg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-msVpziIKv5j6SGhLFjXevke_gb3KzcW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10fUQA5UKDgf6MehOvIEbvYuunpac8-Bt/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10-QY48_fIR6KjPbc2goUT0-ytARTc9g5/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/119Tz3TMA-NfxivHKL9qUGnWRUYMTsM04/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
     <t>Calendário 2021 PCI.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18ya0xmAOAblfOCPDCa09VepSUKCTXNLL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18YNbrbTbGCHnJijg1lDMzosdurIYfWI0/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18ZBzg6KFEpWFkYl6FWqw01o6wCIkRutB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18_wTW5y7hXg_ehvL_eOv6ccBX7pEmUUK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18MnnQHiAxHOQm5JNfeA-mqgciQvQN9Ro/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18iKd6lESM_EXqxcxf9yQKNtLoNe3UmK_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18iZ3-xV9vclDyc1pM8uuSH-VWIXmvv-I/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18qf9TyUE7ZLAPJSm2S8SWwApu52jra79/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18qg4gQMWlBV8OZXe0DKxzUzrxCU1wPVz/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Calendário 2019-1 Minter.pdf</t>
   </si>
   <si>
@@ -319,13 +220,112 @@
     <t>Calendário 2020-2 Dinter.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Kg84vdeBOdLqajzxXWoIRoTc9kWR1Arl/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2023-1</t>
   </si>
   <si>
     <t>Calendário 2023-1.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kg84vdeBOdLqajzxXWoIRoTc9kWR1Arl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/119Tz3TMA-NfxivHKL9qUGnWRUYMTsM04</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10-QY48_fIR6KjPbc2goUT0-ytARTc9g5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10fUQA5UKDgf6MehOvIEbvYuunpac8-Bt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-msVpziIKv5j6SGhLFjXevke_gb3KzcW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/107cWqwybCsh-daF8jvLFQsA6rGeBhvOg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10rjQpCNuOSxlFAPifxLnUxMwpyl3Enpm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-iBfLoHHAApHL1D5DXfsmGACykf-QNKw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-T5eOINh3Vg7W5cCHayTwv2jcArCwbDr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/102xoCOYVE0I2Iq4QTdEbx92WP--mNaL_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-_BJ2Ne0IP0JVN7RA3_DFwuoCjbxGVc0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-mj_v40UUDUaNn-gU1POR1U-Z-_rS6xp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/115yzWSvO1vI3GGNaqACR5B144xUqJ9N8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/117hrgExVXqTjUQkjodFbve_J8bO9ZLSE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-OYpzk98_RqTIwLr8ORA0OVuBA9Jz7uu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-_M9egg46ywyg1s4dYOyjUrg2wpPbUi1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10khIX2KA7PyDFM32BtCIXNoFPhbtbaeT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-oqsa7vf3WvJN0WhQQ4sNk92-nXxyoUH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-yVulUXs-0CLIBt8HEsUiBwMVyc8083j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/113aARaLknQ97w675TCSh0gNnHTDC5ggw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-vxQr6QsQxqpahEY4RlZ0IfIiYcwpU9V</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/119haBrnC7A5GBW32CT2NljBTn3t-lhyj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-NrVwQ1uKiRDgfCDp4Awpwt_4IPu5orz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10tZbzRszcUUnEcbPeEYNmQ23ZuzgC53U</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-xqVNFc-XKKbyffSVC1616BMfPYrS-K6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18ya0xmAOAblfOCPDCa09VepSUKCTXNLL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YNbrbTbGCHnJijg1lDMzosdurIYfWI0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18iKd6lESM_EXqxcxf9yQKNtLoNe3UmK_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18ZBzg6KFEpWFkYl6FWqw01o6wCIkRutB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18iZ3-xV9vclDyc1pM8uuSH-VWIXmvv-I</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18_wTW5y7hXg_ehvL_eOv6ccBX7pEmUUK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18qf9TyUE7ZLAPJSm2S8SWwApu52jra79</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18MnnQHiAxHOQm5JNfeA-mqgciQvQN9Ro</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18qg4gQMWlBV8OZXe0DKxzUzrxCU1wPVz</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -723,13 +723,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -872,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EBE82B-9254-3E43-9085-92B4A46A943A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,10 +1094,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1116,10 +1116,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,10 +1127,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,10 +1138,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,10 +1149,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08306F07-CBF6-8F49-8ECC-EBF8C941F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3843BB-D95E-DD4A-9485-F75B52F5065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>Calendário 2023-1.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Kg84vdeBOdLqajzxXWoIRoTc9kWR1Arl</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/119Tz3TMA-NfxivHKL9qUGnWRUYMTsM04</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/18qg4gQMWlBV8OZXe0DKxzUzrxCU1wPVz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-C7oY7zoCkYF7czXx2zODvULBSPch2tV</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -872,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1026,7 @@
     <hyperlink ref="C5" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
     <hyperlink ref="C4" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
     <hyperlink ref="C3" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C2" r:id="rId25" xr:uid="{B62EC318-9A3E-8B46-A2BA-2987E5EEAF2E}"/>
+    <hyperlink ref="C2" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1064,7 +1064,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3843BB-D95E-DD4A-9485-F75B52F5065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71106DF1-5E50-844B-9832-88D0C1D9ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71106DF1-5E50-844B-9832-88D0C1D9ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82992E42-06CD-5B4F-9F40-D2F4FE7C6FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>Publicação</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-C7oY7zoCkYF7czXx2zODvULBSPch2tV</t>
+  </si>
+  <si>
+    <t>2023-2</t>
+  </si>
+  <si>
+    <t>Calendário 2023-2.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wnHXNVlrKbx64Lohu0ienFsKLD-57vQI</t>
   </si>
 </sst>
 </file>
@@ -699,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,310 +732,322 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C26">
-    <sortCondition descending="1" ref="A6:A26"/>
-    <sortCondition ref="B6:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C27">
+    <sortCondition descending="1" ref="A7:A27"/>
+    <sortCondition ref="B7:B27"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C25" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C24" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C23" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C11" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C10" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C9" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C8" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C7" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C6" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C5" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C4" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C3" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C2" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C9" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C8" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C7" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C6" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C5" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C4" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C3" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C2" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82992E42-06CD-5B4F-9F40-D2F4FE7C6FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608BF39D-78AC-8849-8218-7F7DEDF4814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>Publicação</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1wnHXNVlrKbx64Lohu0ienFsKLD-57vQI</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Calendário 2023-2025 PCI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-rwzReWacNpMhnF2kqrJRmTSVg_XjLUG</t>
   </si>
 </sst>
 </file>
@@ -387,12 +396,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -710,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1055,9 +1066,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EBE82B-9254-3E43-9085-92B4A46A943A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1077,26 +1088,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1104,21 +1115,21 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1126,21 +1137,21 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,21 +1159,21 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1170,26 +1181,38 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C11">
+    <sortCondition ref="A3:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{83211E8C-71E4-154C-9B2A-8170ACB72E20}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3F334DE2-6A63-3243-8882-52E395B2A27C}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{480FE638-E348-7F41-8CC3-65BE4E665E05}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{9DC5FFCA-1672-3046-9221-8CE294D525D0}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{9A993AB2-0F51-8B49-9F58-BE44D0127A8A}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{5F733928-9082-9344-B235-716139010E2C}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{A5894B6B-5DA1-C04B-8D39-2CF84EFF2852}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{0EBFBEB6-DE6D-E643-AB8A-687B9BEB19D0}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{7C9F3DFA-EF37-4E4C-8BB1-3D1BEADB91E0}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{83211E8C-71E4-154C-9B2A-8170ACB72E20}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{3F334DE2-6A63-3243-8882-52E395B2A27C}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{480FE638-E348-7F41-8CC3-65BE4E665E05}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{9DC5FFCA-1672-3046-9221-8CE294D525D0}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{9A993AB2-0F51-8B49-9F58-BE44D0127A8A}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{5F733928-9082-9344-B235-716139010E2C}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{A5894B6B-5DA1-C04B-8D39-2CF84EFF2852}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{0EBFBEB6-DE6D-E643-AB8A-687B9BEB19D0}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7C9F3DFA-EF37-4E4C-8BB1-3D1BEADB91E0}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{414F872A-243F-8340-BCE5-3E25C9BA3734}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608BF39D-78AC-8849-8218-7F7DEDF4814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06407745-F5C3-0A4F-9E89-35BEDC5C9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -396,14 +396,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -721,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1068,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EBE82B-9254-3E43-9085-92B4A46A943A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1088,11 +1086,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="2" t="s">

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06407745-F5C3-0A4F-9E89-35BEDC5C9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB377CAB-39CB-354D-98CE-B22832826D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
     <sheet name="Cooperação Interinstitucional" sheetId="9" r:id="rId2"/>
+    <sheet name="Capacitação docente" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>Publicação</t>
   </si>
@@ -344,6 +345,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-rwzReWacNpMhnF2kqrJRmTSVg_XjLUG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10ydgg_OwSV3YVZoz-LvIAecwuY3hYqKE</t>
+  </si>
+  <si>
+    <t>Calendário Capacitação Docente</t>
   </si>
 </sst>
 </file>
@@ -1214,4 +1221,47 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92411EB9-282D-4F4B-BEDE-61BEEC22AE63}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F591DEB6-D81F-024B-B07A-9058EEF1B811}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB377CAB-39CB-354D-98CE-B22832826D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6719C-ECC5-3C40-8D76-F8A6DB025D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t>Publicação</t>
   </si>
@@ -338,19 +338,28 @@
     <t>https://drive.google.com/file/d/1wnHXNVlrKbx64Lohu0ienFsKLD-57vQI</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Calendário 2023-2025 PCI</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-rwzReWacNpMhnF2kqrJRmTSVg_XjLUG</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/10ydgg_OwSV3YVZoz-LvIAecwuY3hYqKE</t>
   </si>
   <si>
     <t>Calendário Capacitação Docente</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>Calendário 2024-1.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lP0z8-w6RimawUYx5tqpfIdTV5vxAiZY</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Calendário 2024-2025 PCI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lRND2F9zPbol7Y7wKlqtsqQaIIKRVP_j</t>
   </si>
 </sst>
 </file>
@@ -724,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,322 +757,334 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C27">
-    <sortCondition descending="1" ref="A7:A27"/>
-    <sortCondition ref="B7:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C28">
+    <sortCondition descending="1" ref="A8:A28"/>
+    <sortCondition ref="B8:B28"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C26" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C21" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C19" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C11" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C9" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C8" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C7" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C6" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C5" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C4" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C3" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
-    <hyperlink ref="C2" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C25" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C21" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C13" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C10" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C8" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C6" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C5" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C4" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C3" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
+    <hyperlink ref="C2" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1095,13 +1116,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1217,7 +1238,7 @@
     <hyperlink ref="C6" r:id="rId7" xr:uid="{A5894B6B-5DA1-C04B-8D39-2CF84EFF2852}"/>
     <hyperlink ref="C8" r:id="rId8" xr:uid="{0EBFBEB6-DE6D-E643-AB8A-687B9BEB19D0}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{7C9F3DFA-EF37-4E4C-8BB1-3D1BEADB91E0}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{414F872A-243F-8340-BCE5-3E25C9BA3734}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{5D0011FD-952C-444C-98FC-C468F71A610D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1252,10 +1273,10 @@
         <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6719C-ECC5-3C40-8D76-F8A6DB025D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE11CB6-100D-6347-9775-58039AF91B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
   <si>
     <t>Publicação</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lRND2F9zPbol7Y7wKlqtsqQaIIKRVP_j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G4beKvlSHJfFeP75UKl_ovA1FKFC5MSn</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1246,9 +1249,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92411EB9-282D-4F4B-BEDE-61BEEC22AE63}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1270,18 +1273,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F591DEB6-D81F-024B-B07A-9058EEF1B811}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{50F03067-6D1F-0142-B687-6DCC81D126D6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FCE76EEE-47D5-184B-B444-7B6B2F0C9A7E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE11CB6-100D-6347-9775-58039AF91B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90DB10-2AAD-E948-A67E-EA46F367F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>Publicação</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1G4beKvlSHJfFeP75UKl_ovA1FKFC5MSn</t>
+  </si>
+  <si>
+    <t>2024-2</t>
+  </si>
+  <si>
+    <t>Calendário 2024-2.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z1yXNsF0eYwJyXowZ9YglVlVZNy3WWkj</t>
   </si>
 </sst>
 </file>
@@ -440,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,7 +489,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -586,7 +595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,9 +745,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -760,334 +769,346 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C28">
-    <sortCondition descending="1" ref="A8:A28"/>
-    <sortCondition ref="B8:B28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C29">
+    <sortCondition descending="1" ref="A9:A29"/>
+    <sortCondition ref="B9:B29"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C27" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C25" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C24" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C21" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C12" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C11" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C10" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C8" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C7" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C6" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C5" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C4" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
-    <hyperlink ref="C3" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
-    <hyperlink ref="C2" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C22" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C10" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C9" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C8" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C7" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C6" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C5" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C4" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
+    <hyperlink ref="C3" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
+    <hyperlink ref="C2" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1251,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92411EB9-282D-4F4B-BEDE-61BEEC22AE63}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90DB10-2AAD-E948-A67E-EA46F367F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44831732-A219-3D49-BD9F-6AC83E0D6E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>Publicação</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1z1yXNsF0eYwJyXowZ9YglVlVZNy3WWkj</t>
+  </si>
+  <si>
+    <t>2025-1</t>
+  </si>
+  <si>
+    <t>Calendário 2025-1.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AQTgYUGMmqHTy5bp6IDOwsGzaG-6Y9X0</t>
   </si>
 </sst>
 </file>
@@ -745,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,346 +778,358 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C29">
-    <sortCondition descending="1" ref="A9:A29"/>
-    <sortCondition ref="B9:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C30">
+    <sortCondition descending="1" ref="A10:A30"/>
+    <sortCondition ref="B10:B30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C29" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C28" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C27" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C26" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C24" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C22" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C21" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C20" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C13" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C12" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C10" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C9" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C8" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C7" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C6" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C5" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
-    <hyperlink ref="C4" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
-    <hyperlink ref="C3" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
-    <hyperlink ref="C2" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C28" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C24" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C14" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C13" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C10" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C9" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C8" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C7" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C6" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C5" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
+    <hyperlink ref="C4" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
+    <hyperlink ref="C3" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
+    <hyperlink ref="C2" r:id="rId29" xr:uid="{E95904CC-411A-6441-98AF-39DFA5DB6ED9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44831732-A219-3D49-BD9F-6AC83E0D6E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294937D8-B94D-D648-A48E-7F3611560AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
   <si>
     <t>Publicação</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1AQTgYUGMmqHTy5bp6IDOwsGzaG-6Y9X0</t>
+  </si>
+  <si>
+    <t>2025-2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qJHje1Y9Du5Rpce7VIRnF54eGqV3bHmu</t>
+  </si>
+  <si>
+    <t>Calendário 2025-2 PT-EN.pdf</t>
   </si>
 </sst>
 </file>
@@ -433,12 +442,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -754,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -776,360 +787,372 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C30">
-    <sortCondition descending="1" ref="A10:A30"/>
-    <sortCondition ref="B10:B30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C31">
+    <sortCondition descending="1" ref="A11:A31"/>
+    <sortCondition ref="B11:B31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C28" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C27" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C26" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C25" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C24" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C21" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C14" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C13" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C12" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C11" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C10" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C9" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C8" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C7" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C6" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
-    <hyperlink ref="C5" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
-    <hyperlink ref="C4" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
-    <hyperlink ref="C3" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
-    <hyperlink ref="C2" r:id="rId29" xr:uid="{E95904CC-411A-6441-98AF-39DFA5DB6ED9}"/>
+    <hyperlink ref="C31" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C29" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C26" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C22" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C21" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C14" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C12" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C11" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C10" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C9" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C8" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C7" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C6" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
+    <hyperlink ref="C5" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
+    <hyperlink ref="C4" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
+    <hyperlink ref="C3" r:id="rId29" xr:uid="{E95904CC-411A-6441-98AF-39DFA5DB6ED9}"/>
+    <hyperlink ref="C2" r:id="rId30" xr:uid="{8FBB07BB-AF64-DE45-960F-71972536B7DC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294937D8-B94D-D648-A48E-7F3611560AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D86B3-2A85-3048-B911-D73FAB504CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>Publicação</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Calendário 2025-2 PT-EN.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SYACFn37qoFQTdHivFup2VOiv_Nn67Pr</t>
   </si>
 </sst>
 </file>
@@ -442,14 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -767,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -787,11 +788,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1314,9 +1315,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92411EB9-282D-4F4B-BEDE-61BEEC22AE63}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1338,30 +1339,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{50F03067-6D1F-0142-B687-6DCC81D126D6}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{FCE76EEE-47D5-184B-B444-7B6B2F0C9A7E}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{50F03067-6D1F-0142-B687-6DCC81D126D6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{FCE76EEE-47D5-184B-B444-7B6B2F0C9A7E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{5BF49CFD-BDC9-D241-9E54-2577C2C5D300}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D86B3-2A85-3048-B911-D73FAB504CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CA6ED3-188D-9C41-A1C7-88037C311DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sede" sheetId="8" r:id="rId1"/>
@@ -386,13 +386,13 @@
     <t>2025-2</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1qJHje1Y9Du5Rpce7VIRnF54eGqV3bHmu</t>
-  </si>
-  <si>
     <t>Calendário 2025-2 PT-EN.pdf</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1SYACFn37qoFQTdHivFup2VOiv_Nn67Pr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ymhXnamCh77WYut_SskcAVzBeg9rDGTK</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -793,10 +795,10 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1153,7 +1155,7 @@
     <hyperlink ref="C5" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
     <hyperlink ref="C4" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
     <hyperlink ref="C3" r:id="rId29" xr:uid="{E95904CC-411A-6441-98AF-39DFA5DB6ED9}"/>
-    <hyperlink ref="C2" r:id="rId30" xr:uid="{8FBB07BB-AF64-DE45-960F-71972536B7DC}"/>
+    <hyperlink ref="C2" r:id="rId30" xr:uid="{C9E075F9-472A-F340-8DE7-A75E6D80C0CA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1317,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92411EB9-282D-4F4B-BEDE-61BEEC22AE63}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1345,7 +1347,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/PPG/Calendários.xlsx
+++ b/docs/PPG/Calendários.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CA6ED3-188D-9C41-A1C7-88037C311DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA05B9-363B-8F4E-9838-4DE8AAE72E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
   <si>
     <t>Publicação</t>
   </si>
@@ -386,13 +386,22 @@
     <t>2025-2</t>
   </si>
   <si>
-    <t>Calendário 2025-2 PT-EN.pdf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1SYACFn37qoFQTdHivFup2VOiv_Nn67Pr</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ymhXnamCh77WYut_SskcAVzBeg9rDGTK</t>
+  </si>
+  <si>
+    <t>Calendário 2025-2.pdf</t>
+  </si>
+  <si>
+    <t>2026-1</t>
+  </si>
+  <si>
+    <t>Calendário 2026-1.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Rhop2NC3taxpI20i5MLce8iepFA4o2C8</t>
   </si>
 </sst>
 </file>
@@ -766,11 +775,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -792,370 +799,382 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C31">
-    <sortCondition descending="1" ref="A11:A31"/>
-    <sortCondition ref="B11:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C32">
+    <sortCondition descending="1" ref="A12:A32"/>
+    <sortCondition ref="B12:B32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
-    <hyperlink ref="C30" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
-    <hyperlink ref="C29" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
-    <hyperlink ref="C27" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
-    <hyperlink ref="C25" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
-    <hyperlink ref="C22" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
-    <hyperlink ref="C21" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
-    <hyperlink ref="C16" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
-    <hyperlink ref="C14" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
-    <hyperlink ref="C13" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
-    <hyperlink ref="C12" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
-    <hyperlink ref="C11" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
-    <hyperlink ref="C10" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
-    <hyperlink ref="C9" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
-    <hyperlink ref="C8" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
-    <hyperlink ref="C7" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
-    <hyperlink ref="C6" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
-    <hyperlink ref="C5" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
-    <hyperlink ref="C4" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
-    <hyperlink ref="C3" r:id="rId29" xr:uid="{E95904CC-411A-6441-98AF-39DFA5DB6ED9}"/>
-    <hyperlink ref="C2" r:id="rId30" xr:uid="{C9E075F9-472A-F340-8DE7-A75E6D80C0CA}"/>
+    <hyperlink ref="C32" r:id="rId1" xr:uid="{4478EA1F-9AD4-DA4B-9119-2C831F1F8BD4}"/>
+    <hyperlink ref="C31" r:id="rId2" xr:uid="{FD24F3E9-AAA7-3046-9A41-9505C64481D8}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{A67528C1-56A0-ED42-A28A-0246A43E1D3B}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{B5AB0C23-1D93-974D-AF84-BD3D3DD3C682}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{015A2681-3AFC-8246-9C99-FDDAA0B00C5B}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{39F508F7-F0D7-3345-B6B7-CF52D0C752FF}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{9FE47A73-0416-AB4A-92AA-EF27CA144051}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{2C01992C-1661-B24E-B5CF-1D8665C22553}"/>
+    <hyperlink ref="C24" r:id="rId9" xr:uid="{587464AD-68C9-7744-8E84-8AFF34D0DC7C}"/>
+    <hyperlink ref="C23" r:id="rId10" xr:uid="{4A7F0A41-68B2-1C48-BF59-7C91CFED65C9}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{339CCE84-66D9-524D-8E2D-90284877F285}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{F9BAC8F7-C414-B14A-BD95-561E46581E3F}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{A363BDD0-23BB-BB47-8540-384852220723}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{BA5C4821-19F6-4546-96F9-2011D11A64F2}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{4D4F1292-80B0-844A-A1FD-5165E7BA05B0}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{11CEC33F-B9E2-6B47-97D2-281A4F3EE9D0}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{46A1B943-FC81-2A4E-B9D8-07985B667EAD}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{A207F30A-27A4-F140-899A-86AC552D6C7C}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{F142338F-617B-8840-B275-8EE528559E72}"/>
+    <hyperlink ref="C13" r:id="rId20" xr:uid="{79D36B25-D3A5-3A44-AD17-610F9350DB26}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{4A4A09D3-6122-B245-AFA7-FFCF0A16264D}"/>
+    <hyperlink ref="C11" r:id="rId22" xr:uid="{610519A2-0258-4546-B870-E6D1F02975F7}"/>
+    <hyperlink ref="C10" r:id="rId23" xr:uid="{438E4491-7A94-EA45-B956-C5F90D658C25}"/>
+    <hyperlink ref="C9" r:id="rId24" xr:uid="{9123E330-6D61-C14D-A6E3-F856A83D143D}"/>
+    <hyperlink ref="C8" r:id="rId25" xr:uid="{AC9B1AA2-B941-8743-9807-DFBE7353DF8B}"/>
+    <hyperlink ref="C7" r:id="rId26" xr:uid="{3FBFAF46-536B-2C49-87FF-9AE407EFE774}"/>
+    <hyperlink ref="C6" r:id="rId27" xr:uid="{FBABAD5E-C8DB-BA44-9B5C-48BFFE4A4E54}"/>
+    <hyperlink ref="C5" r:id="rId28" xr:uid="{9E046ECC-2ABF-704D-A740-EDDC3E5D98E2}"/>
+    <hyperlink ref="C4" r:id="rId29" xr:uid="{E95904CC-411A-6441-98AF-39DFA5DB6ED9}"/>
+    <hyperlink ref="C3" r:id="rId30" xr:uid="{C9E075F9-472A-F340-8DE7-A75E6D80C0CA}"/>
+    <hyperlink ref="C2" r:id="rId31" xr:uid="{3392FDF9-1E19-0348-8F49-AE4DDD034657}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1347,7 +1366,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
